--- a/data/IDIOMSEXPRESSIONS.xlsx
+++ b/data/IDIOMSEXPRESSIONS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TN3Vocab\EnglishTN3Vocab\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B9C4893-E7C7-4A82-9051-0FEFC6E96430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A81559-C05A-4C9C-AE2F-E2361E269056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{121DE818-F559-4999-BDC1-38BE15970EA6}"/>
   </bookViews>
@@ -25,89 +25,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>I've got a lot on my plate today.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>I have a lot of things to do. (Tôi có rất nhiều việc phải làm)</t>
   </si>
   <si>
-    <t>It just isn't my thing.</t>
-  </si>
-  <si>
     <t>I don't like it. (Đó không phải gu của tôi)</t>
   </si>
   <si>
-    <t>I owe you one.</t>
-  </si>
-  <si>
     <t>Thank you very much for your help. (Tôi nợ bạn một lần giúp đỡ)</t>
   </si>
   <si>
-    <t>No sweat.</t>
-  </si>
-  <si>
     <t>It's easy. (Chuyện nhỏ/Không sao đâu)</t>
   </si>
   <si>
-    <t>It's urgent.</t>
-  </si>
-  <si>
     <t>I need it as soon as possible. (Khẩn cấp)</t>
   </si>
   <si>
-    <t>You're a lifesaver.</t>
-  </si>
-  <si>
     <t>Thanks a lot for your help. (Bạn là vị cứu tinh)</t>
   </si>
   <si>
-    <t>I never run into you here.</t>
-  </si>
-  <si>
     <t>I rarely see you in this place. (Ít khi thấy bạn ở đây)</t>
   </si>
   <si>
-    <t>I can't make up my mind.</t>
-  </si>
-  <si>
     <t>It is difficult for me to decide. (Tôi không thể quyết định được)</t>
   </si>
   <si>
-    <t>See it and you will like it, trust me.</t>
-  </si>
-  <si>
     <t>I think it's worth seeing. (Xem đi rồi sẽ thích, tin tôi đi)</t>
   </si>
   <si>
-    <t>I can't get enough of it.</t>
-  </si>
-  <si>
     <t>I want to have more of it because I really like it. (Thích mê)</t>
   </si>
   <si>
-    <t>I can't put it down.</t>
-  </si>
-  <si>
     <t>I can't stop reading it. (Không thể đặt xuống được - nói về sách hay)</t>
   </si>
   <si>
-    <t>It's a must see.</t>
-  </si>
-  <si>
     <t>You should absolutely visit it when you are here. (Nhất định phải xem)</t>
   </si>
   <si>
-    <t>It's killing me.</t>
-  </si>
-  <si>
     <t>I feel a lot of pain. (Đau chết đi được)</t>
   </si>
   <si>
-    <t>It's overrated.</t>
-  </si>
-  <si>
     <t>People say it's good, but I don't think so. (Được đánh giá quá cao so với thực tế)</t>
   </si>
   <si>
@@ -118,13 +76,372 @@
   </si>
   <si>
     <t>Examples</t>
+  </si>
+  <si>
+    <t>I've got a lot on my plate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I can't meet you tonight, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I've got a lot on my plate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>It just isn't my thing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thanks for the invite, but karaoke </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>just isn't my thing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>I owe you one</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thanks for fixing my car, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I owe you one</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>No sweat</t>
+  </si>
+  <si>
+    <r>
+      <t>"Thanks for waiting." - "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No sweat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>."</t>
+    </r>
+  </si>
+  <si>
+    <t>It's urgent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Call me back immediately, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>it's urgent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>You're a lifesaver</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Thanks for lending me the money, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>you're a lifesaver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>I never run into you here</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Oh hi! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I never run into you here</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> at the library.</t>
+    </r>
+  </si>
+  <si>
+    <t>I can't make up my mind</t>
+  </si>
+  <si>
+    <r>
+      <t>I can't make up my mind</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> about which dress to buy.</t>
+    </r>
+  </si>
+  <si>
+    <t>See it and you will like it...</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You should watch that movie. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>See it and you will like it, trust me.</t>
+    </r>
+  </si>
+  <si>
+    <t>I can't get enough of it</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sushi is delicious, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I can't get enough of it</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>I can't put it down</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This book is so thrilling, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>I can't put it down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>It's a must see</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you go to Paris, the Eiffel Tower </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is a must see</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>It's killing me</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My toothache </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is killing me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>It's overrated</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I think that expensive restaurant </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is overrated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,7 +450,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -147,7 +485,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -170,19 +508,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,155 +863,259 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81ECFC8-77B1-443B-A894-63C8FB92496E}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="C11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
